--- a/xl/予定.xlsx
+++ b/xl/予定.xlsx
@@ -152,6 +152,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.43"/>
+    <col customWidth="1" min="2" max="2" width="20.14"/>
+    <col customWidth="1" min="3" max="3" width="90.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
